--- a/ReportTemplate/AnnualWage.xlsx
+++ b/ReportTemplate/AnnualWage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>职工工资总额年报</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>&amp;=ReportAnnualWage.AnnualYearEndSum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=&amp;=Sum(B{r}:M{r})</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -207,12 +211,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +218,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +533,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,210 +545,209 @@
     <col min="18" max="18" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4">
-        <f>SUM(B3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>SUM(B3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:R4" si="0">SUM(C3:C3)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/ReportTemplate/AnnualWage.xlsx
+++ b/ReportTemplate/AnnualWage.xlsx
@@ -158,6 +158,7 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -533,7 +534,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
